--- a/ResultadoEleicoesDistritos/FARO_PORTIMÃO.xlsx
+++ b/ResultadoEleicoesDistritos/FARO_PORTIMÃO.xlsx
@@ -597,64 +597,64 @@
         <v>15053</v>
       </c>
       <c r="H2" t="n">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="I2" t="n">
-        <v>1564</v>
+        <v>1500</v>
       </c>
       <c r="J2" t="n">
-        <v>6138</v>
+        <v>6264</v>
       </c>
       <c r="K2" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="L2" t="n">
-        <v>1746</v>
+        <v>1670</v>
       </c>
       <c r="M2" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="N2" t="n">
-        <v>1092</v>
+        <v>1052</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P2" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Q2" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="R2" t="n">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="S2" t="n">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="T2" t="n">
         <v>1126</v>
       </c>
       <c r="U2" t="n">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="V2" t="n">
-        <v>9621</v>
+        <v>9646</v>
       </c>
       <c r="W2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X2" t="n">
-        <v>9599</v>
+        <v>9635</v>
       </c>
       <c r="Y2" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="AA2" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
